--- a/country_list.xlsx
+++ b/country_list.xlsx
@@ -1788,9 +1788,6 @@
     <t>PW</t>
   </si>
   <si>
-    <t>Palestinian Territory, Occupied</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
@@ -3657,9 +3654,6 @@
     <t>Pitcairneilanden</t>
   </si>
   <si>
-    <t>Palestijnse Autoriteit</t>
-  </si>
-  <si>
     <t>Roemenië</t>
   </si>
   <si>
@@ -3786,9 +3780,6 @@
     <t>Zuid-Afrika</t>
   </si>
   <si>
-    <t>en (ISO 639-1)</t>
-  </si>
-  <si>
     <t>Engeland</t>
   </si>
   <si>
@@ -3798,7 +3789,16 @@
     <t>Schotland</t>
   </si>
   <si>
-    <t>nl (ISO 639-1)</t>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>nl</t>
   </si>
 </sst>
 </file>
@@ -4140,7 +4140,8 @@
   <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,25 +4156,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="B1" t="s">
         <v>1260</v>
       </c>
       <c r="C1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1" t="s">
         <v>846</v>
       </c>
-      <c r="D1" t="s">
-        <v>847</v>
-      </c>
       <c r="E1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1" t="s">
         <v>844</v>
       </c>
-      <c r="F1" t="s">
-        <v>845</v>
-      </c>
       <c r="G1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4196,30 +4197,30 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C3" t="s">
         <v>716</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>717</v>
       </c>
       <c r="D3" t="s">
         <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4242,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,7 +4251,7 @@
         <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C5" t="s">
         <v>275</v>
@@ -4259,13 +4260,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,7 +4286,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4293,7 +4294,7 @@
         <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C7" t="s">
         <v>262</v>
@@ -4308,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4316,7 +4317,7 @@
         <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C8" t="s">
         <v>279</v>
@@ -4331,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,13 +4349,13 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4379,7 +4380,7 @@
         <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C11" t="s">
         <v>277</v>
@@ -4394,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4402,7 +4403,7 @@
         <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C12" t="s">
         <v>265</v>
@@ -4411,13 +4412,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G12" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,7 +4426,7 @@
         <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C13" t="s">
         <v>285</v>
@@ -4440,7 +4441,7 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,7 +4449,7 @@
         <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C14" t="s">
         <v>283</v>
@@ -4463,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4480,13 +4481,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,7 +4495,7 @@
         <v>259</v>
       </c>
       <c r="B16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C16" t="s">
         <v>260</v>
@@ -4503,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,7 +4512,7 @@
         <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C17" t="s">
         <v>287</v>
@@ -4526,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4534,7 +4535,7 @@
         <v>312</v>
       </c>
       <c r="B18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C18" t="s">
         <v>313</v>
@@ -4549,7 +4550,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4566,13 +4567,13 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,13 +4590,13 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G20" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4603,7 +4604,7 @@
         <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C21" t="s">
         <v>299</v>
@@ -4618,7 +4619,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4635,13 +4636,13 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4649,7 +4650,7 @@
         <v>324</v>
       </c>
       <c r="B23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C23" t="s">
         <v>325</v>
@@ -4658,13 +4659,13 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,7 +4673,7 @@
         <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C24" t="s">
         <v>291</v>
@@ -4687,7 +4688,7 @@
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4710,7 +4711,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,24 +4734,24 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>619</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C27" t="s">
         <v>620</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C27" t="s">
-        <v>621</v>
       </c>
       <c r="D27" t="s">
         <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4767,13 +4768,13 @@
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4781,7 +4782,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C29" t="s">
         <v>323</v>
@@ -4790,13 +4791,13 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,7 +4805,7 @@
         <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C30" t="s">
         <v>309</v>
@@ -4819,7 +4820,7 @@
         <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4827,7 +4828,7 @@
         <v>310</v>
       </c>
       <c r="B31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C31" t="s">
         <v>311</v>
@@ -4836,7 +4837,7 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,7 +4845,7 @@
         <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C32" t="s">
         <v>319</v>
@@ -4859,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4867,7 +4868,7 @@
         <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C33" t="s">
         <v>289</v>
@@ -4876,13 +4877,13 @@
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4899,13 +4900,13 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G34" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4913,7 +4914,7 @@
         <v>316</v>
       </c>
       <c r="B35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C35" t="s">
         <v>317</v>
@@ -4922,7 +4923,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,13 +4940,13 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4953,7 +4954,7 @@
         <v>296</v>
       </c>
       <c r="B37" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C37" t="s">
         <v>297</v>
@@ -4968,7 +4969,7 @@
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,13 +4986,13 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,7 +5015,7 @@
         <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5022,7 +5023,7 @@
         <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C40" t="s">
         <v>351</v>
@@ -5031,7 +5032,7 @@
         <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5039,7 +5040,7 @@
         <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C41" t="s">
         <v>359</v>
@@ -5048,13 +5049,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F41" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G41" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5062,7 +5063,7 @@
         <v>340</v>
       </c>
       <c r="B42" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -5074,10 +5075,10 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G42" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5085,7 +5086,7 @@
         <v>356</v>
       </c>
       <c r="B43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -5100,30 +5101,30 @@
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>680</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C44" t="s">
         <v>681</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>682</v>
       </c>
       <c r="D44" t="s">
         <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F44" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G44" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5131,7 +5132,7 @@
         <v>364</v>
       </c>
       <c r="B45" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C45" t="s">
         <v>365</v>
@@ -5146,7 +5147,7 @@
         <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5154,7 +5155,7 @@
         <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C46" t="s">
         <v>361</v>
@@ -5169,7 +5170,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,7 +5178,7 @@
         <v>344</v>
       </c>
       <c r="B47" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C47" t="s">
         <v>345</v>
@@ -5186,13 +5187,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G47" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5200,7 +5201,7 @@
         <v>332</v>
       </c>
       <c r="B48" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C48" t="s">
         <v>333</v>
@@ -5215,7 +5216,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,7 +5239,7 @@
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5261,7 +5262,7 @@
         <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5278,13 +5279,13 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F51" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,7 +5308,7 @@
         <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5315,7 +5316,7 @@
         <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C53" t="s">
         <v>337</v>
@@ -5330,7 +5331,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5350,7 +5351,7 @@
         <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5358,7 +5359,7 @@
         <v>348</v>
       </c>
       <c r="B55" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C55" t="s">
         <v>349</v>
@@ -5367,7 +5368,7 @@
         <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5390,7 +5391,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5398,7 +5399,7 @@
         <v>374</v>
       </c>
       <c r="B57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C57" t="s">
         <v>375</v>
@@ -5413,7 +5414,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5421,7 +5422,7 @@
         <v>418</v>
       </c>
       <c r="B58" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C58" t="s">
         <v>419</v>
@@ -5430,13 +5431,13 @@
         <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F58" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G58" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5459,7 +5460,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,7 +5468,7 @@
         <v>376</v>
       </c>
       <c r="B60" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C60" t="s">
         <v>377</v>
@@ -5476,13 +5477,13 @@
         <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G60" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5505,7 +5506,7 @@
         <v>64</v>
       </c>
       <c r="G61" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5514,7 @@
         <v>381</v>
       </c>
       <c r="B62" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C62" t="s">
         <v>382</v>
@@ -5528,7 +5529,7 @@
         <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,7 +5537,7 @@
         <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C63" t="s">
         <v>264</v>
@@ -5545,13 +5546,13 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G63" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,7 +5575,7 @@
         <v>66</v>
       </c>
       <c r="G64" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5582,7 +5583,7 @@
         <v>393</v>
       </c>
       <c r="B65" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C65" t="s">
         <v>394</v>
@@ -5597,7 +5598,7 @@
         <v>71</v>
       </c>
       <c r="G65" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,7 +5606,7 @@
         <v>385</v>
       </c>
       <c r="B66" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C66" t="s">
         <v>386</v>
@@ -5620,24 +5621,24 @@
         <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>738</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C67" t="s">
         <v>739</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C67" t="s">
-        <v>740</v>
       </c>
       <c r="D67" t="s">
         <v>246</v>
       </c>
       <c r="G67" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,18 +5661,18 @@
         <v>70</v>
       </c>
       <c r="G68" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>666</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C69" t="s">
         <v>667</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>668</v>
       </c>
       <c r="D69" t="s">
         <v>209</v>
@@ -5683,7 +5684,7 @@
         <v>209</v>
       </c>
       <c r="G69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,7 +5692,7 @@
         <v>395</v>
       </c>
       <c r="B70" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C70" t="s">
         <v>396</v>
@@ -5706,7 +5707,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,7 +5730,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5746,13 +5747,13 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F72" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5761,7 @@
         <v>397</v>
       </c>
       <c r="B73" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C73" t="s">
         <v>398</v>
@@ -5769,7 +5770,7 @@
         <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,7 +5778,7 @@
         <v>540</v>
       </c>
       <c r="B74" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C74" t="s">
         <v>541</v>
@@ -5789,7 +5790,7 @@
         <v>145</v>
       </c>
       <c r="G74" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,7 +5798,7 @@
         <v>399</v>
       </c>
       <c r="B75" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C75" t="s">
         <v>400</v>
@@ -5809,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5817,7 +5818,7 @@
         <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C76" t="s">
         <v>406</v>
@@ -5832,7 +5833,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5855,7 +5856,7 @@
         <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,10 +5864,10 @@
         <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C78" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D78" t="s">
         <v>235</v>
@@ -5875,7 +5876,7 @@
         <v>235</v>
       </c>
       <c r="G78" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5892,13 +5893,13 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F79" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G79" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5906,7 +5907,7 @@
         <v>416</v>
       </c>
       <c r="B80" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C80" t="s">
         <v>417</v>
@@ -5921,7 +5922,7 @@
         <v>83</v>
       </c>
       <c r="G80" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5929,7 +5930,7 @@
         <v>407</v>
       </c>
       <c r="B81" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C81" t="s">
         <v>408</v>
@@ -5938,7 +5939,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5955,7 +5956,7 @@
         <v>93</v>
       </c>
       <c r="G82" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5978,7 +5979,7 @@
         <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5995,7 +5996,7 @@
         <v>86</v>
       </c>
       <c r="G84" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6003,7 +6004,7 @@
         <v>426</v>
       </c>
       <c r="B85" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C85" t="s">
         <v>427</v>
@@ -6012,7 +6013,7 @@
         <v>88</v>
       </c>
       <c r="G85" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6029,13 +6030,13 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,7 +6044,7 @@
         <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C87" t="s">
         <v>439</v>
@@ -6052,13 +6053,13 @@
         <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G87" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6075,7 +6076,7 @@
         <v>90</v>
       </c>
       <c r="G88" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6083,7 +6084,7 @@
         <v>389</v>
       </c>
       <c r="B89" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C89" t="s">
         <v>390</v>
@@ -6092,13 +6093,13 @@
         <v>69</v>
       </c>
       <c r="E89" t="s">
+        <v>774</v>
+      </c>
+      <c r="F89" t="s">
         <v>775</v>
       </c>
-      <c r="F89" t="s">
-        <v>776</v>
-      </c>
       <c r="G89" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,7 +6107,7 @@
         <v>424</v>
       </c>
       <c r="B90" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C90" t="s">
         <v>425</v>
@@ -6115,30 +6116,30 @@
         <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F90" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G90" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>662</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C91" t="s">
         <v>663</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C91" t="s">
-        <v>664</v>
       </c>
       <c r="D91" t="s">
         <v>207</v>
       </c>
       <c r="G91" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6155,13 +6156,13 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F92" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G92" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,7 +6185,7 @@
         <v>91</v>
       </c>
       <c r="G93" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6192,7 +6193,7 @@
         <v>440</v>
       </c>
       <c r="B94" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C94" t="s">
         <v>441</v>
@@ -6201,13 +6202,13 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F94" t="s">
         <v>95</v>
       </c>
       <c r="G94" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,7 +6231,7 @@
         <v>96</v>
       </c>
       <c r="G95" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6238,7 +6239,7 @@
         <v>252</v>
       </c>
       <c r="B96" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C96" t="s">
         <v>452</v>
@@ -6253,7 +6254,7 @@
         <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6261,7 +6262,7 @@
         <v>446</v>
       </c>
       <c r="B97" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C97" t="s">
         <v>447</v>
@@ -6270,7 +6271,7 @@
         <v>98</v>
       </c>
       <c r="G97" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6287,13 +6288,13 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F98" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G98" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6301,7 +6302,7 @@
         <v>366</v>
       </c>
       <c r="B99" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C99" t="s">
         <v>367</v>
@@ -6310,13 +6311,13 @@
         <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F99" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G99" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6324,7 +6325,7 @@
         <v>444</v>
       </c>
       <c r="B100" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C100" t="s">
         <v>445</v>
@@ -6333,13 +6334,13 @@
         <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F100" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G100" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6347,7 +6348,7 @@
         <v>453</v>
       </c>
       <c r="B101" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C101" t="s">
         <v>454</v>
@@ -6362,7 +6363,7 @@
         <v>101</v>
       </c>
       <c r="G101" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6370,7 +6371,7 @@
         <v>459</v>
       </c>
       <c r="B102" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C102" t="s">
         <v>460</v>
@@ -6379,13 +6380,13 @@
         <v>104</v>
       </c>
       <c r="E102" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F102" t="s">
         <v>104</v>
       </c>
       <c r="G102" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6393,7 +6394,7 @@
         <v>253</v>
       </c>
       <c r="B103" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C103" t="s">
         <v>465</v>
@@ -6408,7 +6409,7 @@
         <v>107</v>
       </c>
       <c r="G103" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6416,7 +6417,7 @@
         <v>468</v>
       </c>
       <c r="B104" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C104" t="s">
         <v>469</v>
@@ -6431,7 +6432,7 @@
         <v>109</v>
       </c>
       <c r="G104" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6439,7 +6440,7 @@
         <v>466</v>
       </c>
       <c r="B105" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C105" t="s">
         <v>467</v>
@@ -6448,7 +6449,7 @@
         <v>108</v>
       </c>
       <c r="G105" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,7 +6472,7 @@
         <v>103</v>
       </c>
       <c r="G106" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,7 +6480,7 @@
         <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C107" t="s">
         <v>321</v>
@@ -6488,7 +6489,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6496,7 +6497,7 @@
         <v>463</v>
       </c>
       <c r="B108" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C108" t="s">
         <v>464</v>
@@ -6511,7 +6512,7 @@
         <v>106</v>
       </c>
       <c r="G108" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6519,7 +6520,7 @@
         <v>461</v>
       </c>
       <c r="B109" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C109" t="s">
         <v>462</v>
@@ -6528,13 +6529,13 @@
         <v>105</v>
       </c>
       <c r="E109" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F109" t="s">
         <v>105</v>
       </c>
       <c r="G109" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,7 +6543,7 @@
         <v>455</v>
       </c>
       <c r="B110" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C110" t="s">
         <v>456</v>
@@ -6557,7 +6558,7 @@
         <v>102</v>
       </c>
       <c r="G110" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,7 +6566,7 @@
         <v>470</v>
       </c>
       <c r="B111" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C111" t="s">
         <v>471</v>
@@ -6580,7 +6581,7 @@
         <v>110</v>
       </c>
       <c r="G111" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,7 +6598,7 @@
         <v>113</v>
       </c>
       <c r="G112" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6620,7 +6621,7 @@
         <v>111</v>
       </c>
       <c r="G113" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6628,7 +6629,7 @@
         <v>478</v>
       </c>
       <c r="B114" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C114" t="s">
         <v>479</v>
@@ -6643,7 +6644,7 @@
         <v>114</v>
       </c>
       <c r="G114" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -6666,7 +6667,7 @@
         <v>112</v>
       </c>
       <c r="G115" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6675,7 @@
         <v>482</v>
       </c>
       <c r="B116" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C116" t="s">
         <v>483</v>
@@ -6689,7 +6690,7 @@
         <v>116</v>
       </c>
       <c r="G116" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -6697,7 +6698,7 @@
         <v>492</v>
       </c>
       <c r="B117" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C117" t="s">
         <v>493</v>
@@ -6712,7 +6713,7 @@
         <v>121</v>
       </c>
       <c r="G117" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6720,7 +6721,7 @@
         <v>330</v>
       </c>
       <c r="B118" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C118" t="s">
         <v>331</v>
@@ -6729,13 +6730,13 @@
         <v>39</v>
       </c>
       <c r="E118" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F118" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G118" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,7 +6756,7 @@
         <v>117</v>
       </c>
       <c r="G119" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6763,7 +6764,7 @@
         <v>354</v>
       </c>
       <c r="B120" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C120" t="s">
         <v>355</v>
@@ -6778,30 +6779,30 @@
         <v>51</v>
       </c>
       <c r="G120" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>623</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C121" t="s">
         <v>624</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C121" t="s">
-        <v>625</v>
       </c>
       <c r="D121" t="s">
         <v>187</v>
       </c>
       <c r="E121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G121" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6809,7 +6810,7 @@
         <v>486</v>
       </c>
       <c r="B122" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C122" t="s">
         <v>487</v>
@@ -6824,7 +6825,7 @@
         <v>118</v>
       </c>
       <c r="G122" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6832,7 +6833,7 @@
         <v>488</v>
       </c>
       <c r="B123" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C123" t="s">
         <v>489</v>
@@ -6847,7 +6848,7 @@
         <v>119</v>
       </c>
       <c r="G123" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6855,7 +6856,7 @@
         <v>490</v>
       </c>
       <c r="B124" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C124" t="s">
         <v>491</v>
@@ -6864,13 +6865,13 @@
         <v>120</v>
       </c>
       <c r="E124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F124" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G124" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,7 +6879,7 @@
         <v>338</v>
       </c>
       <c r="B125" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C125" t="s">
         <v>339</v>
@@ -6887,13 +6888,13 @@
         <v>43</v>
       </c>
       <c r="E125" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F125" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G125" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6901,7 +6902,7 @@
         <v>480</v>
       </c>
       <c r="B126" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C126" t="s">
         <v>481</v>
@@ -6916,7 +6917,7 @@
         <v>115</v>
       </c>
       <c r="G126" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6924,7 +6925,7 @@
         <v>494</v>
       </c>
       <c r="B127" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C127" t="s">
         <v>495</v>
@@ -6939,7 +6940,7 @@
         <v>122</v>
       </c>
       <c r="G127" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -6947,7 +6948,7 @@
         <v>498</v>
       </c>
       <c r="B128" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C128" t="s">
         <v>499</v>
@@ -6956,24 +6957,24 @@
         <v>124</v>
       </c>
       <c r="E128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G128" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>625</v>
+      </c>
+      <c r="B129" t="s">
+        <v>625</v>
+      </c>
+      <c r="C129" t="s">
         <v>626</v>
-      </c>
-      <c r="B129" t="s">
-        <v>626</v>
-      </c>
-      <c r="C129" t="s">
-        <v>627</v>
       </c>
       <c r="D129" t="s">
         <v>188</v>
@@ -6985,7 +6986,7 @@
         <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7008,30 +7009,30 @@
         <v>128</v>
       </c>
       <c r="G130" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>668</v>
+      </c>
+      <c r="B131" t="s">
+        <v>668</v>
+      </c>
+      <c r="C131" t="s">
         <v>669</v>
-      </c>
-      <c r="B131" t="s">
-        <v>669</v>
-      </c>
-      <c r="C131" t="s">
-        <v>670</v>
       </c>
       <c r="D131" t="s">
         <v>210</v>
       </c>
       <c r="E131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F131" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G131" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7054,7 +7055,7 @@
         <v>126</v>
       </c>
       <c r="G132" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -7071,13 +7072,13 @@
         <v>125</v>
       </c>
       <c r="E133" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F133" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G133" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,7 +7086,7 @@
         <v>508</v>
       </c>
       <c r="B134" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C134" t="s">
         <v>509</v>
@@ -7100,7 +7101,7 @@
         <v>129</v>
       </c>
       <c r="G134" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -7108,7 +7109,7 @@
         <v>510</v>
       </c>
       <c r="B135" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C135" t="s">
         <v>511</v>
@@ -7123,7 +7124,7 @@
         <v>130</v>
       </c>
       <c r="G135" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -7131,7 +7132,7 @@
         <v>496</v>
       </c>
       <c r="B136" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C136" t="s">
         <v>497</v>
@@ -7140,13 +7141,13 @@
         <v>123</v>
       </c>
       <c r="E136" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F136" t="s">
         <v>123</v>
       </c>
       <c r="G136" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -7154,7 +7155,7 @@
         <v>504</v>
       </c>
       <c r="B137" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C137" t="s">
         <v>505</v>
@@ -7163,13 +7164,13 @@
         <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F137" t="s">
         <v>127</v>
       </c>
       <c r="G137" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -7177,7 +7178,7 @@
         <v>552</v>
       </c>
       <c r="B138" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C138" t="s">
         <v>553</v>
@@ -7192,7 +7193,7 @@
         <v>151</v>
       </c>
       <c r="G138" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -7209,10 +7210,10 @@
         <v>147</v>
       </c>
       <c r="E139" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G139" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -7220,7 +7221,7 @@
         <v>542</v>
       </c>
       <c r="B140" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C140" t="s">
         <v>543</v>
@@ -7235,7 +7236,7 @@
         <v>146</v>
       </c>
       <c r="G140" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -7258,24 +7259,24 @@
         <v>149</v>
       </c>
       <c r="G141" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>627</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C142" t="s">
         <v>628</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C142" t="s">
-        <v>629</v>
       </c>
       <c r="D142" t="s">
         <v>189</v>
       </c>
       <c r="G142" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -7283,7 +7284,7 @@
         <v>516</v>
       </c>
       <c r="B143" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C143" t="s">
         <v>517</v>
@@ -7292,13 +7293,13 @@
         <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F143" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G143" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -7306,7 +7307,7 @@
         <v>528</v>
       </c>
       <c r="B144" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C144" t="s">
         <v>529</v>
@@ -7318,7 +7319,7 @@
         <v>139</v>
       </c>
       <c r="G144" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -7326,7 +7327,7 @@
         <v>514</v>
       </c>
       <c r="B145" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C145" t="s">
         <v>515</v>
@@ -7341,7 +7342,7 @@
         <v>132</v>
       </c>
       <c r="G145" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -7364,7 +7365,7 @@
         <v>137</v>
       </c>
       <c r="G146" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -7381,13 +7382,13 @@
         <v>153</v>
       </c>
       <c r="E147" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F147" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G147" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -7395,7 +7396,7 @@
         <v>546</v>
       </c>
       <c r="B148" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C148" t="s">
         <v>547</v>
@@ -7404,13 +7405,13 @@
         <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F148" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G148" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -7418,7 +7419,7 @@
         <v>512</v>
       </c>
       <c r="B149" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C149" t="s">
         <v>513</v>
@@ -7430,7 +7431,7 @@
         <v>131</v>
       </c>
       <c r="G149" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -7438,7 +7439,7 @@
         <v>580</v>
       </c>
       <c r="B150" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C150" t="s">
         <v>581</v>
@@ -7447,7 +7448,7 @@
         <v>165</v>
       </c>
       <c r="G150" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -7464,7 +7465,7 @@
         <v>140</v>
       </c>
       <c r="G151" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -7472,7 +7473,7 @@
         <v>532</v>
       </c>
       <c r="B152" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C152" t="s">
         <v>533</v>
@@ -7481,13 +7482,13 @@
         <v>141</v>
       </c>
       <c r="E152" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F152" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G152" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,7 +7508,7 @@
         <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7530,7 +7531,7 @@
         <v>138</v>
       </c>
       <c r="G154" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -7547,13 +7548,13 @@
         <v>142</v>
       </c>
       <c r="E155" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F155" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G155" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -7561,7 +7562,7 @@
         <v>522</v>
       </c>
       <c r="B156" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C156" t="s">
         <v>523</v>
@@ -7576,7 +7577,7 @@
         <v>136</v>
       </c>
       <c r="G156" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -7593,13 +7594,13 @@
         <v>134</v>
       </c>
       <c r="E157" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F157" t="s">
         <v>134</v>
       </c>
       <c r="G157" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7622,7 +7623,7 @@
         <v>144</v>
       </c>
       <c r="G158" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -7630,7 +7631,7 @@
         <v>520</v>
       </c>
       <c r="B159" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C159" t="s">
         <v>521</v>
@@ -7639,13 +7640,13 @@
         <v>135</v>
       </c>
       <c r="E159" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F159" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G159" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7668,7 +7669,7 @@
         <v>152</v>
       </c>
       <c r="G160" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,7 +7677,7 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C161" t="s">
         <v>559</v>
@@ -7691,7 +7692,7 @@
         <v>154</v>
       </c>
       <c r="G161" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,7 +7700,7 @@
         <v>566</v>
       </c>
       <c r="B162" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C162" t="s">
         <v>567</v>
@@ -7711,7 +7712,7 @@
         <v>158</v>
       </c>
       <c r="G162" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -7728,13 +7729,13 @@
         <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F163" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G163" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -7742,7 +7743,7 @@
         <v>578</v>
       </c>
       <c r="B164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C164" t="s">
         <v>579</v>
@@ -7751,7 +7752,7 @@
         <v>164</v>
       </c>
       <c r="G164" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -7768,13 +7769,13 @@
         <v>162</v>
       </c>
       <c r="E165" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F165" t="s">
         <v>162</v>
       </c>
       <c r="G165" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -7791,13 +7792,13 @@
         <v>160</v>
       </c>
       <c r="E166" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F166" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G166" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,7 +7806,7 @@
         <v>564</v>
       </c>
       <c r="B167" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C167" t="s">
         <v>565</v>
@@ -7814,13 +7815,13 @@
         <v>157</v>
       </c>
       <c r="E167" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F167" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G167" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,7 +7829,7 @@
         <v>582</v>
       </c>
       <c r="B168" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C168" t="s">
         <v>583</v>
@@ -7843,7 +7844,7 @@
         <v>166</v>
       </c>
       <c r="G168" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7860,13 +7861,13 @@
         <v>156</v>
       </c>
       <c r="E169" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F169" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G169" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7886,7 +7887,7 @@
         <v>155</v>
       </c>
       <c r="G170" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,7 +7904,7 @@
         <v>163</v>
       </c>
       <c r="G171" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7911,7 +7912,7 @@
         <v>568</v>
       </c>
       <c r="B172" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C172" t="s">
         <v>569</v>
@@ -7926,7 +7927,7 @@
         <v>159</v>
       </c>
       <c r="G172" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7943,24 +7944,24 @@
         <v>167</v>
       </c>
       <c r="E173" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F173" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G173" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>591</v>
+      </c>
+      <c r="B174" t="s">
+        <v>591</v>
+      </c>
+      <c r="C174" t="s">
         <v>592</v>
-      </c>
-      <c r="B174" t="s">
-        <v>592</v>
-      </c>
-      <c r="C174" t="s">
-        <v>593</v>
       </c>
       <c r="D174" t="s">
         <v>171</v>
@@ -7972,18 +7973,18 @@
         <v>171</v>
       </c>
       <c r="G174" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>597</v>
+      </c>
+      <c r="B175" t="s">
+        <v>597</v>
+      </c>
+      <c r="C175" t="s">
         <v>598</v>
-      </c>
-      <c r="B175" t="s">
-        <v>598</v>
-      </c>
-      <c r="C175" t="s">
-        <v>599</v>
       </c>
       <c r="D175" t="s">
         <v>174</v>
@@ -7995,7 +7996,7 @@
         <v>174</v>
       </c>
       <c r="G175" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -8003,7 +8004,7 @@
         <v>251</v>
       </c>
       <c r="B176" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C176" t="s">
         <v>409</v>
@@ -8012,21 +8013,21 @@
         <v>79</v>
       </c>
       <c r="F176" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G176" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C177" t="s">
         <v>594</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C177" t="s">
-        <v>595</v>
       </c>
       <c r="D177" t="s">
         <v>172</v>
@@ -8038,30 +8039,30 @@
         <v>172</v>
       </c>
       <c r="G177" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C178" t="s">
         <v>600</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C178" t="s">
-        <v>601</v>
       </c>
       <c r="D178" t="s">
         <v>175</v>
       </c>
       <c r="E178" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F178" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G178" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -8084,18 +8085,18 @@
         <v>168</v>
       </c>
       <c r="G179" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>603</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C180" t="s">
         <v>604</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C180" t="s">
-        <v>605</v>
       </c>
       <c r="D180" t="s">
         <v>177</v>
@@ -8107,110 +8108,110 @@
         <v>177</v>
       </c>
       <c r="G180" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>629</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C181" t="s">
         <v>630</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C181" t="s">
-        <v>631</v>
       </c>
       <c r="D181" t="s">
         <v>190</v>
       </c>
       <c r="G181" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>601</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C182" t="s">
         <v>602</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C182" t="s">
-        <v>603</v>
       </c>
       <c r="D182" t="s">
         <v>176</v>
       </c>
       <c r="G182" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>607</v>
+      </c>
+      <c r="B183" t="s">
+        <v>607</v>
+      </c>
+      <c r="C183" t="s">
         <v>608</v>
-      </c>
-      <c r="B183" t="s">
-        <v>608</v>
-      </c>
-      <c r="C183" t="s">
-        <v>609</v>
       </c>
       <c r="D183" t="s">
         <v>179</v>
       </c>
       <c r="E183" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F183" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G183" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C184" t="s">
         <v>590</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C184" t="s">
-        <v>591</v>
       </c>
       <c r="D184" t="s">
         <v>170</v>
       </c>
       <c r="E184" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F184" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G184" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>605</v>
+      </c>
+      <c r="B185" t="s">
+        <v>605</v>
+      </c>
+      <c r="C185" t="s">
         <v>606</v>
-      </c>
-      <c r="B185" t="s">
-        <v>606</v>
-      </c>
-      <c r="C185" t="s">
-        <v>607</v>
       </c>
       <c r="D185" t="s">
         <v>178</v>
       </c>
       <c r="E185" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F185" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G185" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -8230,41 +8231,41 @@
         <v>169</v>
       </c>
       <c r="G186" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>595</v>
+      </c>
+      <c r="B187" t="s">
+        <v>595</v>
+      </c>
+      <c r="C187" t="s">
         <v>596</v>
-      </c>
-      <c r="B187" t="s">
-        <v>596</v>
-      </c>
-      <c r="C187" t="s">
-        <v>597</v>
       </c>
       <c r="D187" t="s">
         <v>173</v>
       </c>
       <c r="E187" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F187" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G187" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>609</v>
+      </c>
+      <c r="B188" t="s">
+        <v>609</v>
+      </c>
+      <c r="C188" t="s">
         <v>610</v>
-      </c>
-      <c r="B188" t="s">
-        <v>610</v>
-      </c>
-      <c r="C188" t="s">
-        <v>611</v>
       </c>
       <c r="D188" t="s">
         <v>180</v>
@@ -8276,35 +8277,35 @@
         <v>180</v>
       </c>
       <c r="G188" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>611</v>
+      </c>
+      <c r="B189" t="s">
+        <v>611</v>
+      </c>
+      <c r="C189" t="s">
         <v>612</v>
-      </c>
-      <c r="B189" t="s">
-        <v>612</v>
-      </c>
-      <c r="C189" t="s">
-        <v>613</v>
       </c>
       <c r="D189" t="s">
         <v>181</v>
       </c>
       <c r="G189" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>613</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C190" t="s">
         <v>614</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C190" t="s">
-        <v>615</v>
       </c>
       <c r="D190" t="s">
         <v>182</v>
@@ -8316,18 +8317,18 @@
         <v>182</v>
       </c>
       <c r="G190" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>642</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C191" t="s">
         <v>643</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C191" t="s">
-        <v>644</v>
       </c>
       <c r="D191" t="s">
         <v>197</v>
@@ -8339,18 +8340,18 @@
         <v>197</v>
       </c>
       <c r="G191" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>615</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C192" t="s">
         <v>616</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C192" t="s">
-        <v>617</v>
       </c>
       <c r="D192" t="s">
         <v>183</v>
@@ -8362,18 +8363,18 @@
         <v>183</v>
       </c>
       <c r="G192" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>617</v>
+      </c>
+      <c r="B193" t="s">
+        <v>617</v>
+      </c>
+      <c r="C193" t="s">
         <v>618</v>
-      </c>
-      <c r="B193" t="s">
-        <v>618</v>
-      </c>
-      <c r="C193" t="s">
-        <v>619</v>
       </c>
       <c r="D193" t="s">
         <v>184</v>
@@ -8385,110 +8386,110 @@
         <v>184</v>
       </c>
       <c r="G193" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>638</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C194" t="s">
         <v>639</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C194" t="s">
-        <v>640</v>
       </c>
       <c r="D194" t="s">
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F194" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G194" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>656</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C195" t="s">
         <v>657</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C195" t="s">
-        <v>658</v>
       </c>
       <c r="D195" t="s">
         <v>204</v>
       </c>
       <c r="E195" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F195" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G195" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>644</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C196" t="s">
         <v>645</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C196" t="s">
-        <v>646</v>
       </c>
       <c r="D196" t="s">
         <v>198</v>
       </c>
       <c r="E196" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F196" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G196" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>670</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C197" t="s">
         <v>671</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C197" t="s">
-        <v>672</v>
       </c>
       <c r="D197" t="s">
         <v>211</v>
       </c>
       <c r="E197" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F197" t="s">
         <v>211</v>
       </c>
       <c r="G197" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>678</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C198" t="s">
         <v>679</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C198" t="s">
-        <v>680</v>
       </c>
       <c r="D198" t="s">
         <v>215</v>
@@ -8500,98 +8501,98 @@
         <v>215</v>
       </c>
       <c r="G198" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>648</v>
+      </c>
+      <c r="B199" t="s">
+        <v>648</v>
+      </c>
+      <c r="C199" t="s">
         <v>649</v>
-      </c>
-      <c r="B199" t="s">
-        <v>649</v>
-      </c>
-      <c r="C199" t="s">
-        <v>650</v>
       </c>
       <c r="D199" t="s">
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F199" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G199" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>621</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C200" t="s">
         <v>622</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C200" t="s">
-        <v>623</v>
       </c>
       <c r="D200" t="s">
         <v>186</v>
       </c>
       <c r="G200" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>654</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C201" t="s">
         <v>655</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C201" t="s">
-        <v>656</v>
       </c>
       <c r="D201" t="s">
         <v>203</v>
       </c>
       <c r="E201" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F201" t="s">
         <v>203</v>
       </c>
       <c r="G201" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>674</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C202" t="s">
         <v>675</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C202" t="s">
-        <v>676</v>
       </c>
       <c r="D202" t="s">
         <v>213</v>
       </c>
       <c r="G202" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>652</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C203" t="s">
         <v>653</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C203" t="s">
-        <v>654</v>
       </c>
       <c r="D203" t="s">
         <v>202</v>
@@ -8603,18 +8604,18 @@
         <v>202</v>
       </c>
       <c r="G203" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>646</v>
+      </c>
+      <c r="B204" t="s">
+        <v>646</v>
+      </c>
+      <c r="C204" t="s">
         <v>647</v>
-      </c>
-      <c r="B204" t="s">
-        <v>647</v>
-      </c>
-      <c r="C204" t="s">
-        <v>648</v>
       </c>
       <c r="D204" t="s">
         <v>199</v>
@@ -8626,18 +8627,18 @@
         <v>199</v>
       </c>
       <c r="G204" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>634</v>
+      </c>
+      <c r="B205" t="s">
+        <v>634</v>
+      </c>
+      <c r="C205" t="s">
         <v>635</v>
-      </c>
-      <c r="B205" t="s">
-        <v>635</v>
-      </c>
-      <c r="C205" t="s">
-        <v>636</v>
       </c>
       <c r="D205" t="s">
         <v>193</v>
@@ -8649,18 +8650,18 @@
         <v>193</v>
       </c>
       <c r="G205" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>640</v>
+      </c>
+      <c r="B206" t="s">
+        <v>640</v>
+      </c>
+      <c r="C206" t="s">
         <v>641</v>
-      </c>
-      <c r="B206" t="s">
-        <v>641</v>
-      </c>
-      <c r="C206" t="s">
-        <v>642</v>
       </c>
       <c r="D206" t="s">
         <v>196</v>
@@ -8672,18 +8673,18 @@
         <v>196</v>
       </c>
       <c r="G206" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>658</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C207" t="s">
         <v>659</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C207" t="s">
-        <v>660</v>
       </c>
       <c r="D207" t="s">
         <v>205</v>
@@ -8695,18 +8696,18 @@
         <v>205</v>
       </c>
       <c r="G207" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>672</v>
+      </c>
+      <c r="B208" t="s">
+        <v>672</v>
+      </c>
+      <c r="C208" t="s">
         <v>673</v>
-      </c>
-      <c r="B208" t="s">
-        <v>673</v>
-      </c>
-      <c r="C208" t="s">
-        <v>674</v>
       </c>
       <c r="D208" t="s">
         <v>212</v>
@@ -8718,35 +8719,35 @@
         <v>212</v>
       </c>
       <c r="G208" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>664</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C209" t="s">
         <v>665</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C209" t="s">
-        <v>666</v>
       </c>
       <c r="D209" t="s">
         <v>208</v>
       </c>
       <c r="G209" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>636</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C210" t="s">
         <v>637</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C210" t="s">
-        <v>638</v>
       </c>
       <c r="D210" t="s">
         <v>194</v>
@@ -8758,7 +8759,7 @@
         <v>194</v>
       </c>
       <c r="G210" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8775,41 +8776,41 @@
         <v>68</v>
       </c>
       <c r="E211" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F211" t="s">
         <v>68</v>
       </c>
       <c r="G211" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>650</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C212" t="s">
         <v>651</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C212" t="s">
-        <v>652</v>
       </c>
       <c r="D212" t="s">
         <v>201</v>
       </c>
       <c r="G212" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>682</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C213" t="s">
         <v>683</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C213" t="s">
-        <v>684</v>
       </c>
       <c r="D213" t="s">
         <v>217</v>
@@ -8821,18 +8822,18 @@
         <v>217</v>
       </c>
       <c r="G213" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>676</v>
+      </c>
+      <c r="B214" t="s">
+        <v>676</v>
+      </c>
+      <c r="C214" t="s">
         <v>677</v>
-      </c>
-      <c r="B214" t="s">
-        <v>677</v>
-      </c>
-      <c r="C214" t="s">
-        <v>678</v>
       </c>
       <c r="D214" t="s">
         <v>214</v>
@@ -8844,18 +8845,18 @@
         <v>214</v>
       </c>
       <c r="G214" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>707</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C215" t="s">
         <v>708</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C215" t="s">
-        <v>709</v>
       </c>
       <c r="D215" t="s">
         <v>230</v>
@@ -8864,7 +8865,7 @@
         <v>230</v>
       </c>
       <c r="G215" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8872,7 +8873,7 @@
         <v>342</v>
       </c>
       <c r="B216" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C216" t="s">
         <v>343</v>
@@ -8881,13 +8882,13 @@
         <v>45</v>
       </c>
       <c r="E216" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F216" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G216" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8895,7 +8896,7 @@
         <v>410</v>
       </c>
       <c r="B217" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C217" t="s">
         <v>411</v>
@@ -8904,41 +8905,41 @@
         <v>80</v>
       </c>
       <c r="G217" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>693</v>
+      </c>
+      <c r="B218" t="s">
+        <v>693</v>
+      </c>
+      <c r="C218" t="s">
         <v>694</v>
-      </c>
-      <c r="B218" t="s">
-        <v>694</v>
-      </c>
-      <c r="C218" t="s">
-        <v>695</v>
       </c>
       <c r="D218" t="s">
         <v>223</v>
       </c>
       <c r="E218" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F218" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G218" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>690</v>
+      </c>
+      <c r="B219" t="s">
+        <v>690</v>
+      </c>
+      <c r="C219" t="s">
         <v>691</v>
-      </c>
-      <c r="B219" t="s">
-        <v>691</v>
-      </c>
-      <c r="C219" t="s">
-        <v>692</v>
       </c>
       <c r="D219" t="s">
         <v>221</v>
@@ -8950,18 +8951,18 @@
         <v>221</v>
       </c>
       <c r="G219" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>686</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C220" t="s">
         <v>687</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C220" t="s">
-        <v>688</v>
       </c>
       <c r="D220" t="s">
         <v>219</v>
@@ -8973,24 +8974,24 @@
         <v>219</v>
       </c>
       <c r="G220" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>695</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C221" t="s">
         <v>696</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C221" t="s">
-        <v>697</v>
       </c>
       <c r="D221" t="s">
         <v>224</v>
       </c>
       <c r="G221" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8998,10 +8999,10 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C222" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D222" t="s">
         <v>222</v>
@@ -9013,18 +9014,18 @@
         <v>222</v>
       </c>
       <c r="G222" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>705</v>
+      </c>
+      <c r="B223" t="s">
+        <v>705</v>
+      </c>
+      <c r="C223" t="s">
         <v>706</v>
-      </c>
-      <c r="B223" t="s">
-        <v>706</v>
-      </c>
-      <c r="C223" t="s">
-        <v>707</v>
       </c>
       <c r="D223" t="s">
         <v>229</v>
@@ -9036,18 +9037,18 @@
         <v>229</v>
       </c>
       <c r="G223" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>701</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C224" t="s">
         <v>702</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C224" t="s">
-        <v>703</v>
       </c>
       <c r="D224" t="s">
         <v>227</v>
@@ -9059,41 +9060,41 @@
         <v>227</v>
       </c>
       <c r="G224" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>697</v>
+      </c>
+      <c r="B225" t="s">
+        <v>697</v>
+      </c>
+      <c r="C225" t="s">
         <v>698</v>
-      </c>
-      <c r="B225" t="s">
-        <v>698</v>
-      </c>
-      <c r="C225" t="s">
-        <v>699</v>
       </c>
       <c r="D225" t="s">
         <v>225</v>
       </c>
       <c r="E225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G225" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>703</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C226" t="s">
         <v>704</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C226" t="s">
-        <v>705</v>
       </c>
       <c r="D226" t="s">
         <v>228</v>
@@ -9105,41 +9106,41 @@
         <v>228</v>
       </c>
       <c r="G226" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>699</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C227" t="s">
         <v>700</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C227" t="s">
-        <v>701</v>
       </c>
       <c r="D227" t="s">
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F227" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G227" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>709</v>
+      </c>
+      <c r="B228" t="s">
+        <v>709</v>
+      </c>
+      <c r="C228" t="s">
         <v>710</v>
-      </c>
-      <c r="B228" t="s">
-        <v>710</v>
-      </c>
-      <c r="C228" t="s">
-        <v>711</v>
       </c>
       <c r="D228" t="s">
         <v>231</v>
@@ -9148,64 +9149,64 @@
         <v>231</v>
       </c>
       <c r="G228" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C229" t="s">
         <v>685</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C229" t="s">
-        <v>686</v>
       </c>
       <c r="D229" t="s">
         <v>218</v>
       </c>
       <c r="E229" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F229" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G229" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C230" t="s">
         <v>689</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C230" t="s">
-        <v>690</v>
       </c>
       <c r="D230" t="s">
         <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F230" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G230" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>713</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C231" t="s">
         <v>714</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C231" t="s">
-        <v>715</v>
       </c>
       <c r="D231" t="s">
         <v>233</v>
@@ -9217,18 +9218,18 @@
         <v>233</v>
       </c>
       <c r="G231" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>711</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C232" t="s">
         <v>712</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C232" t="s">
-        <v>713</v>
       </c>
       <c r="D232" t="s">
         <v>232</v>
@@ -9240,35 +9241,35 @@
         <v>232</v>
       </c>
       <c r="G232" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>720</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C233" t="s">
         <v>721</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C233" t="s">
-        <v>722</v>
       </c>
       <c r="D233" t="s">
         <v>237</v>
       </c>
       <c r="G233" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>718</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C234" t="s">
         <v>719</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C234" t="s">
-        <v>720</v>
       </c>
       <c r="D234" t="s">
         <v>236</v>
@@ -9280,41 +9281,41 @@
         <v>236</v>
       </c>
       <c r="G234" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>722</v>
+      </c>
+      <c r="B235" t="s">
+        <v>722</v>
+      </c>
+      <c r="C235" t="s">
         <v>723</v>
-      </c>
-      <c r="B235" t="s">
-        <v>723</v>
-      </c>
-      <c r="C235" t="s">
-        <v>724</v>
       </c>
       <c r="D235" t="s">
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F235" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G235" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>724</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C236" t="s">
         <v>725</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C236" t="s">
-        <v>726</v>
       </c>
       <c r="D236" t="s">
         <v>240</v>
@@ -9326,7 +9327,7 @@
         <v>240</v>
       </c>
       <c r="G236" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -9334,7 +9335,7 @@
         <v>448</v>
       </c>
       <c r="B237" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C237" t="s">
         <v>449</v>
@@ -9343,41 +9344,41 @@
         <v>242</v>
       </c>
       <c r="G237" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>631</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C238" t="s">
         <v>632</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C238" t="s">
-        <v>633</v>
       </c>
       <c r="D238" t="s">
         <v>191</v>
       </c>
       <c r="E238" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F238" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G238" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>728</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C239" t="s">
         <v>729</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C239" t="s">
-        <v>730</v>
       </c>
       <c r="D239" t="s">
         <v>243</v>
@@ -9389,116 +9390,116 @@
         <v>243</v>
       </c>
       <c r="G239" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>732</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C240" t="s">
         <v>733</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C240" t="s">
-        <v>734</v>
       </c>
       <c r="D240" t="s">
         <v>34</v>
       </c>
       <c r="E240" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F240" t="s">
         <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>734</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C241" t="s">
         <v>735</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C241" t="s">
-        <v>736</v>
       </c>
       <c r="D241" t="s">
         <v>238</v>
       </c>
       <c r="E241" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F241" t="s">
         <v>238</v>
       </c>
       <c r="G241" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>730</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C242" t="s">
         <v>731</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C242" t="s">
-        <v>732</v>
       </c>
       <c r="D242" t="s">
         <v>244</v>
       </c>
       <c r="E242" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F242" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G242" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>726</v>
+      </c>
+      <c r="B243" t="s">
+        <v>726</v>
+      </c>
+      <c r="C243" t="s">
         <v>727</v>
-      </c>
-      <c r="B243" t="s">
-        <v>727</v>
-      </c>
-      <c r="C243" t="s">
-        <v>728</v>
       </c>
       <c r="D243" t="s">
         <v>241</v>
       </c>
       <c r="E243" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F243" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G243" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>736</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C244" t="s">
         <v>737</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C244" t="s">
-        <v>738</v>
       </c>
       <c r="D244" t="s">
         <v>245</v>
       </c>
       <c r="G244" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9509,30 +9510,30 @@
         <v>254</v>
       </c>
       <c r="C245" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D245" t="s">
         <v>192</v>
       </c>
       <c r="E245" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F245" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G245" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>740</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C246" t="s">
         <v>741</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C246" t="s">
-        <v>742</v>
       </c>
       <c r="D246" t="s">
         <v>247</v>
@@ -9544,7 +9545,7 @@
         <v>247</v>
       </c>
       <c r="G246" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9561,132 +9562,132 @@
         <v>143</v>
       </c>
       <c r="G247" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>660</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C248" t="s">
         <v>661</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C248" t="s">
-        <v>662</v>
       </c>
       <c r="D248" t="s">
         <v>206</v>
       </c>
       <c r="E248" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F248" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G248" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>742</v>
+      </c>
+      <c r="B249" t="s">
+        <v>742</v>
+      </c>
+      <c r="C249" t="s">
         <v>743</v>
-      </c>
-      <c r="B249" t="s">
-        <v>743</v>
-      </c>
-      <c r="C249" t="s">
-        <v>744</v>
       </c>
       <c r="D249" t="s">
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F249" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G249" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>744</v>
+      </c>
+      <c r="B250" t="s">
+        <v>744</v>
+      </c>
+      <c r="C250" t="s">
         <v>745</v>
-      </c>
-      <c r="B250" t="s">
-        <v>745</v>
-      </c>
-      <c r="C250" t="s">
-        <v>746</v>
       </c>
       <c r="D250" t="s">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F250" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G250" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>772</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F251" t="s">
         <v>773</v>
       </c>
-      <c r="B251" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F251" t="s">
-        <v>774</v>
-      </c>
       <c r="G251" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>807</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F252" t="s">
         <v>808</v>
       </c>
-      <c r="B252" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F252" t="s">
-        <v>809</v>
-      </c>
       <c r="G252" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>819</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F253" t="s">
         <v>820</v>
       </c>
-      <c r="B253" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F253" t="s">
-        <v>821</v>
-      </c>
       <c r="G253" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>839</v>
+      </c>
+      <c r="B254" t="s">
+        <v>839</v>
+      </c>
+      <c r="F254" t="s">
         <v>840</v>
       </c>
-      <c r="B254" t="s">
-        <v>840</v>
-      </c>
-      <c r="F254" t="s">
-        <v>841</v>
-      </c>
       <c r="G254" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
